--- a/it_data.xlsx
+++ b/it_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\입찰운영사업팀\입찰운영사업팀\★비딩 공용폴더★\00. ☆★ 2023 비딩 추진 업무 ☆★\▶IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flyordig\bidding_crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="1. IT 전체 개별단가" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
   <si>
     <t>NO</t>
   </si>
@@ -456,7 +456,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1298,6 +1298,27 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,34 +1328,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,15 +1343,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1362,6 +1350,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,25 +1379,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1715,7 +1712,59 @@
                     <c:v>다나와</c:v>
                   </c:pt>
                 </c:lvl>
-                <c:lvl/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2022-11-08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2022-11-29</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022-12-02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2022-12-06</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022-12-13</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2022-12-20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022-12-27</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-01-03</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-01-10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-01-17</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-01-24</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-01-31</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-02-07</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-02-14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-02-21</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-02-28</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-03-07</c:v>
+                  </c:pt>
+                </c:lvl>
                 <c:lvl/>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -1961,7 +2010,59 @@
                     <c:v>다나와</c:v>
                   </c:pt>
                 </c:lvl>
-                <c:lvl/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2022-11-08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2022-11-29</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022-12-02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2022-12-06</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022-12-13</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2022-12-20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022-12-27</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-01-03</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-01-10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-01-17</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-01-24</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-01-31</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-02-07</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-02-14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-02-21</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-02-28</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-03-07</c:v>
+                  </c:pt>
+                </c:lvl>
                 <c:lvl/>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -2207,7 +2308,59 @@
                     <c:v>다나와</c:v>
                   </c:pt>
                 </c:lvl>
-                <c:lvl/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2022-11-08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2022-11-29</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022-12-02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2022-12-06</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022-12-13</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2022-12-20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022-12-27</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-01-03</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-01-10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-01-17</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-01-24</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-01-31</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-02-07</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-02-14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-02-21</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-02-28</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-03-07</c:v>
+                  </c:pt>
+                </c:lvl>
                 <c:lvl/>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -2455,7 +2608,59 @@
                     <c:v>다나와</c:v>
                   </c:pt>
                 </c:lvl>
-                <c:lvl/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2022-11-08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2022-11-29</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022-12-02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2022-12-06</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022-12-13</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2022-12-20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022-12-27</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-01-03</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-01-10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-01-17</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-01-24</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-01-31</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-02-07</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-02-14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-02-21</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-02-28</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-03-07</c:v>
+                  </c:pt>
+                </c:lvl>
                 <c:lvl/>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -2703,7 +2908,59 @@
                     <c:v>다나와</c:v>
                   </c:pt>
                 </c:lvl>
-                <c:lvl/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2022-11-08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2022-11-29</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022-12-02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2022-12-06</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022-12-13</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2022-12-20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022-12-27</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-01-03</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-01-10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-01-17</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-01-24</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-01-31</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-02-07</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-02-14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-02-21</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-02-28</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-03-07</c:v>
+                  </c:pt>
+                </c:lvl>
                 <c:lvl/>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -2967,7 +3224,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -3133,7 +3442,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3220,7 +3529,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -3295,7 +3656,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -3386,7 +3747,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3473,7 +3834,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -3548,7 +3961,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -3639,7 +4052,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3726,7 +4139,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -3801,7 +4266,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -3892,7 +4357,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3979,7 +4444,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -4021,7 +4538,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -4114,7 +4631,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4201,7 +4718,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -4276,7 +4845,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -4369,7 +4938,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4456,7 +5025,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -4531,7 +5152,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -4624,7 +5245,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4711,7 +5332,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -4786,7 +5459,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -4879,7 +5552,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4966,7 +5639,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -5041,7 +5766,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -5134,7 +5859,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -5221,7 +5946,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -5263,7 +6040,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -5357,7 +6134,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -5444,7 +6221,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -5519,7 +6348,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -5613,7 +6442,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -5700,7 +6529,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -5775,7 +6656,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -5869,7 +6750,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -5956,7 +6837,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -6031,7 +6964,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -6125,7 +7058,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6212,7 +7145,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -6287,7 +7272,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -6381,7 +7366,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6468,7 +7453,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -6510,7 +7547,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -6603,7 +7640,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6690,7 +7727,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -6765,7 +7854,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -6858,7 +7947,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6945,7 +8034,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -7020,7 +8161,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -7113,7 +8254,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7200,7 +8341,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -7275,7 +8468,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000016-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -7367,7 +8560,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7454,7 +8647,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -7478,7 +8723,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000017-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -7571,7 +8816,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7658,7 +8903,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -7682,7 +8979,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000018-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -7775,7 +9072,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7862,7 +9159,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -7886,7 +9235,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000019-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -7979,7 +9328,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -8066,7 +9415,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -8090,7 +9491,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001A-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -8183,7 +9584,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -8270,7 +9671,59 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2022-11-08</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2022-11-29</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2022-12-02</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2022-12-06</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2022-12-13</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2022-12-20</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2022-12-27</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2023-01-03</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2023-01-10</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2023-01-17</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2023-01-24</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2023-01-31</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2023-02-07</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2023-02-14</c:v>
+                        </c:pt>
+                        <c:pt idx="14">
+                          <c:v>2023-02-21</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>2023-02-28</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>2023-03-07</c:v>
+                        </c:pt>
+                      </c:lvl>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -8294,7 +9747,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001B-D1D0-41A3-972A-D08F81FE5697}"/>
                   </c:ext>
@@ -8542,7 +9995,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8808,7 +10260,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9074,7 +10525,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10320,7 +11770,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10586,7 +12035,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11343,7 +12791,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13460,9 +14907,11 @@
   </sheetPr>
   <dimension ref="B1:AG83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
@@ -13489,7 +14938,7 @@
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" ht="40.15" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -13525,105 +14974,109 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
     </row>
-    <row r="26" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B27" s="74" t="s">
+    <row r="26" spans="2:33" ht="17.25" thickBot="1"/>
+    <row r="27" spans="2:33" ht="17.25" thickBot="1">
+      <c r="B27" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="89" t="s">
+      <c r="E27" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="89" t="s">
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="67" t="s">
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="71" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B28" s="75"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="92" t="s">
+    <row r="28" spans="2:33" ht="17.25" thickBot="1">
+      <c r="B28" s="74"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="92" t="s">
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="92" t="s">
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="93"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="92" t="s">
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="92" t="s">
+      <c r="X28" s="66"/>
+      <c r="Y28" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="94"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="66"/>
       <c r="AB28" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AC28" s="92" t="s">
+      <c r="AC28" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="AD28" s="93"/>
-      <c r="AE28" s="93"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="68"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="72"/>
     </row>
-    <row r="29" spans="2:33" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="76"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+    <row r="29" spans="2:33" ht="27.75" thickBot="1">
+      <c r="B29" s="75"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="67" t="s">
+        <v>2</v>
+      </c>
       <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
@@ -13708,13 +15161,13 @@
       <c r="AF29" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="AG29" s="68"/>
+      <c r="AG29" s="72"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B30" s="61">
+    <row r="30" spans="2:33">
+      <c r="B30" s="68">
         <v>1</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="92">
         <v>44873</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -13790,9 +15243,11 @@
       <c r="AF30" s="23"/>
       <c r="AG30" s="16"/>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B31" s="62"/>
-      <c r="C31" s="65"/>
+    <row r="31" spans="2:33">
+      <c r="B31" s="69"/>
+      <c r="C31" s="92">
+        <v>44873</v>
+      </c>
       <c r="D31" s="6" t="s">
         <v>73</v>
       </c>
@@ -13866,9 +15321,11 @@
       <c r="AF31" s="22"/>
       <c r="AG31" s="9"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B32" s="63"/>
-      <c r="C32" s="66"/>
+    <row r="32" spans="2:33">
+      <c r="B32" s="70"/>
+      <c r="C32" s="92">
+        <v>44873</v>
+      </c>
       <c r="D32" s="6" t="s">
         <v>75</v>
       </c>
@@ -13942,11 +15399,11 @@
       <c r="AF32" s="22"/>
       <c r="AG32" s="9"/>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B33" s="61">
+    <row r="33" spans="2:33">
+      <c r="B33" s="68">
         <v>2</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="92">
         <v>44894</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -14022,9 +15479,11 @@
       <c r="AF33" s="22"/>
       <c r="AG33" s="9"/>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B34" s="62"/>
-      <c r="C34" s="65"/>
+    <row r="34" spans="2:33">
+      <c r="B34" s="69"/>
+      <c r="C34" s="92">
+        <v>44894</v>
+      </c>
       <c r="D34" s="6" t="s">
         <v>72</v>
       </c>
@@ -14098,9 +15557,11 @@
       <c r="AF34" s="22"/>
       <c r="AG34" s="9"/>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B35" s="63"/>
-      <c r="C35" s="66"/>
+    <row r="35" spans="2:33">
+      <c r="B35" s="70"/>
+      <c r="C35" s="92">
+        <v>44894</v>
+      </c>
       <c r="D35" s="6" t="s">
         <v>74</v>
       </c>
@@ -14174,11 +15635,11 @@
       <c r="AF35" s="22"/>
       <c r="AG35" s="9"/>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B36" s="61">
+    <row r="36" spans="2:33">
+      <c r="B36" s="68">
         <v>3</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="92">
         <v>44897</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -14254,9 +15715,11 @@
       <c r="AF36" s="22"/>
       <c r="AG36" s="9"/>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B37" s="62"/>
-      <c r="C37" s="65"/>
+    <row r="37" spans="2:33">
+      <c r="B37" s="69"/>
+      <c r="C37" s="92">
+        <v>44897</v>
+      </c>
       <c r="D37" s="6" t="s">
         <v>72</v>
       </c>
@@ -14330,9 +15793,11 @@
       <c r="AF37" s="22"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B38" s="63"/>
-      <c r="C38" s="66"/>
+    <row r="38" spans="2:33">
+      <c r="B38" s="70"/>
+      <c r="C38" s="92">
+        <v>44897</v>
+      </c>
       <c r="D38" s="6" t="s">
         <v>74</v>
       </c>
@@ -14406,11 +15871,11 @@
       <c r="AF38" s="22"/>
       <c r="AG38" s="9"/>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B39" s="61">
+    <row r="39" spans="2:33">
+      <c r="B39" s="68">
         <v>4</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="92">
         <v>44901</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -14486,9 +15951,11 @@
       <c r="AF39" s="22"/>
       <c r="AG39" s="9"/>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B40" s="62"/>
-      <c r="C40" s="65"/>
+    <row r="40" spans="2:33">
+      <c r="B40" s="69"/>
+      <c r="C40" s="92">
+        <v>44901</v>
+      </c>
       <c r="D40" s="6" t="s">
         <v>72</v>
       </c>
@@ -14562,9 +16029,11 @@
       <c r="AF40" s="22"/>
       <c r="AG40" s="9"/>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B41" s="63"/>
-      <c r="C41" s="66"/>
+    <row r="41" spans="2:33">
+      <c r="B41" s="70"/>
+      <c r="C41" s="92">
+        <v>44901</v>
+      </c>
       <c r="D41" s="6" t="s">
         <v>74</v>
       </c>
@@ -14638,11 +16107,11 @@
       <c r="AF41" s="22"/>
       <c r="AG41" s="9"/>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B42" s="61">
+    <row r="42" spans="2:33">
+      <c r="B42" s="68">
         <v>5</v>
       </c>
-      <c r="C42" s="64">
+      <c r="C42" s="92">
         <v>44908</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -14726,9 +16195,11 @@
       <c r="AF42" s="22"/>
       <c r="AG42" s="9"/>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B43" s="62"/>
-      <c r="C43" s="65"/>
+    <row r="43" spans="2:33">
+      <c r="B43" s="69"/>
+      <c r="C43" s="92">
+        <v>44908</v>
+      </c>
       <c r="D43" s="6" t="s">
         <v>72</v>
       </c>
@@ -14810,9 +16281,11 @@
       <c r="AF43" s="22"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B44" s="63"/>
-      <c r="C44" s="66"/>
+    <row r="44" spans="2:33">
+      <c r="B44" s="70"/>
+      <c r="C44" s="92">
+        <v>44908</v>
+      </c>
       <c r="D44" s="6" t="s">
         <v>74</v>
       </c>
@@ -14886,11 +16359,11 @@
       <c r="AF44" s="22"/>
       <c r="AG44" s="9"/>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B45" s="61">
+    <row r="45" spans="2:33">
+      <c r="B45" s="68">
         <v>6</v>
       </c>
-      <c r="C45" s="64">
+      <c r="C45" s="92">
         <v>44915</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -14974,9 +16447,11 @@
       <c r="AF45" s="22"/>
       <c r="AG45" s="9"/>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B46" s="62"/>
-      <c r="C46" s="65"/>
+    <row r="46" spans="2:33">
+      <c r="B46" s="69"/>
+      <c r="C46" s="92">
+        <v>44915</v>
+      </c>
       <c r="D46" s="6" t="s">
         <v>72</v>
       </c>
@@ -15058,9 +16533,11 @@
       <c r="AF46" s="22"/>
       <c r="AG46" s="9"/>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B47" s="63"/>
-      <c r="C47" s="66"/>
+    <row r="47" spans="2:33">
+      <c r="B47" s="70"/>
+      <c r="C47" s="92">
+        <v>44915</v>
+      </c>
       <c r="D47" s="6" t="s">
         <v>74</v>
       </c>
@@ -15134,11 +16611,11 @@
       <c r="AF47" s="22"/>
       <c r="AG47" s="9"/>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B48" s="61">
+    <row r="48" spans="2:33">
+      <c r="B48" s="68">
         <v>7</v>
       </c>
-      <c r="C48" s="64">
+      <c r="C48" s="92">
         <v>44922</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -15222,9 +16699,11 @@
       <c r="AF48" s="22"/>
       <c r="AG48" s="9"/>
     </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B49" s="62"/>
-      <c r="C49" s="65"/>
+    <row r="49" spans="2:33">
+      <c r="B49" s="69"/>
+      <c r="C49" s="92">
+        <v>44922</v>
+      </c>
       <c r="D49" s="6" t="s">
         <v>72</v>
       </c>
@@ -15306,9 +16785,11 @@
       <c r="AF49" s="22"/>
       <c r="AG49" s="9"/>
     </row>
-    <row r="50" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B50" s="63"/>
-      <c r="C50" s="66"/>
+    <row r="50" spans="2:33">
+      <c r="B50" s="70"/>
+      <c r="C50" s="92">
+        <v>44922</v>
+      </c>
       <c r="D50" s="6" t="s">
         <v>74</v>
       </c>
@@ -15382,11 +16863,11 @@
       <c r="AF50" s="22"/>
       <c r="AG50" s="9"/>
     </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B51" s="61">
+    <row r="51" spans="2:33">
+      <c r="B51" s="68">
         <v>8</v>
       </c>
-      <c r="C51" s="64">
+      <c r="C51" s="92">
         <v>44929</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -15470,9 +16951,11 @@
       <c r="AF51" s="22"/>
       <c r="AG51" s="9"/>
     </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B52" s="62"/>
-      <c r="C52" s="65"/>
+    <row r="52" spans="2:33">
+      <c r="B52" s="69"/>
+      <c r="C52" s="92">
+        <v>44929</v>
+      </c>
       <c r="D52" s="6" t="s">
         <v>72</v>
       </c>
@@ -15554,9 +17037,11 @@
       <c r="AF52" s="22"/>
       <c r="AG52" s="9"/>
     </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B53" s="63"/>
-      <c r="C53" s="66"/>
+    <row r="53" spans="2:33">
+      <c r="B53" s="70"/>
+      <c r="C53" s="92">
+        <v>44929</v>
+      </c>
       <c r="D53" s="6" t="s">
         <v>74</v>
       </c>
@@ -15630,11 +17115,11 @@
       <c r="AF53" s="22"/>
       <c r="AG53" s="9"/>
     </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B54" s="61">
+    <row r="54" spans="2:33">
+      <c r="B54" s="68">
         <v>9</v>
       </c>
-      <c r="C54" s="64">
+      <c r="C54" s="92">
         <v>44936</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -15718,9 +17203,11 @@
       <c r="AF54" s="28"/>
       <c r="AG54" s="29"/>
     </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B55" s="62"/>
-      <c r="C55" s="65"/>
+    <row r="55" spans="2:33">
+      <c r="B55" s="69"/>
+      <c r="C55" s="92">
+        <v>44936</v>
+      </c>
       <c r="D55" s="6" t="s">
         <v>72</v>
       </c>
@@ -15802,9 +17289,11 @@
       <c r="AF55" s="22"/>
       <c r="AG55" s="9"/>
     </row>
-    <row r="56" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B56" s="63"/>
-      <c r="C56" s="66"/>
+    <row r="56" spans="2:33">
+      <c r="B56" s="70"/>
+      <c r="C56" s="92">
+        <v>44936</v>
+      </c>
       <c r="D56" s="6" t="s">
         <v>74</v>
       </c>
@@ -15878,11 +17367,11 @@
       <c r="AF56" s="22"/>
       <c r="AG56" s="9"/>
     </row>
-    <row r="57" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B57" s="61">
+    <row r="57" spans="2:33">
+      <c r="B57" s="68">
         <v>10</v>
       </c>
-      <c r="C57" s="64">
+      <c r="C57" s="92">
         <v>44943</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -15966,9 +17455,11 @@
       <c r="AF57" s="28"/>
       <c r="AG57" s="29"/>
     </row>
-    <row r="58" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B58" s="62"/>
-      <c r="C58" s="65"/>
+    <row r="58" spans="2:33">
+      <c r="B58" s="69"/>
+      <c r="C58" s="92">
+        <v>44943</v>
+      </c>
       <c r="D58" s="6" t="s">
         <v>72</v>
       </c>
@@ -16050,9 +17541,11 @@
       <c r="AF58" s="22"/>
       <c r="AG58" s="9"/>
     </row>
-    <row r="59" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B59" s="63"/>
-      <c r="C59" s="66"/>
+    <row r="59" spans="2:33">
+      <c r="B59" s="70"/>
+      <c r="C59" s="92">
+        <v>44943</v>
+      </c>
       <c r="D59" s="6" t="s">
         <v>74</v>
       </c>
@@ -16126,11 +17619,11 @@
       <c r="AF59" s="22"/>
       <c r="AG59" s="9"/>
     </row>
-    <row r="60" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B60" s="61">
+    <row r="60" spans="2:33">
+      <c r="B60" s="68">
         <v>11</v>
       </c>
-      <c r="C60" s="64">
+      <c r="C60" s="92">
         <v>44950</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -16214,9 +17707,11 @@
       <c r="AF60" s="22"/>
       <c r="AG60" s="9"/>
     </row>
-    <row r="61" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B61" s="62"/>
-      <c r="C61" s="65"/>
+    <row r="61" spans="2:33">
+      <c r="B61" s="69"/>
+      <c r="C61" s="92">
+        <v>44950</v>
+      </c>
       <c r="D61" s="6" t="s">
         <v>72</v>
       </c>
@@ -16298,9 +17793,11 @@
       <c r="AF61" s="22"/>
       <c r="AG61" s="9"/>
     </row>
-    <row r="62" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B62" s="63"/>
-      <c r="C62" s="66"/>
+    <row r="62" spans="2:33">
+      <c r="B62" s="70"/>
+      <c r="C62" s="92">
+        <v>44950</v>
+      </c>
       <c r="D62" s="6" t="s">
         <v>74</v>
       </c>
@@ -16374,11 +17871,11 @@
       <c r="AF62" s="22"/>
       <c r="AG62" s="9"/>
     </row>
-    <row r="63" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B63" s="61">
+    <row r="63" spans="2:33">
+      <c r="B63" s="68">
         <v>12</v>
       </c>
-      <c r="C63" s="64">
+      <c r="C63" s="92">
         <v>44957</v>
       </c>
       <c r="D63" s="25" t="s">
@@ -16468,9 +17965,11 @@
       <c r="AF63" s="28"/>
       <c r="AG63" s="29"/>
     </row>
-    <row r="64" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B64" s="62"/>
-      <c r="C64" s="65"/>
+    <row r="64" spans="2:33">
+      <c r="B64" s="69"/>
+      <c r="C64" s="92">
+        <v>44957</v>
+      </c>
       <c r="D64" s="6" t="s">
         <v>72</v>
       </c>
@@ -16558,9 +18057,11 @@
       <c r="AF64" s="22"/>
       <c r="AG64" s="9"/>
     </row>
-    <row r="65" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B65" s="63"/>
-      <c r="C65" s="66"/>
+    <row r="65" spans="2:33">
+      <c r="B65" s="70"/>
+      <c r="C65" s="92">
+        <v>44957</v>
+      </c>
       <c r="D65" s="6" t="s">
         <v>74</v>
       </c>
@@ -16640,11 +18141,11 @@
       <c r="AF65" s="22"/>
       <c r="AG65" s="9"/>
     </row>
-    <row r="66" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B66" s="61">
+    <row r="66" spans="2:33">
+      <c r="B66" s="68">
         <v>13</v>
       </c>
-      <c r="C66" s="64">
+      <c r="C66" s="92">
         <v>44964</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -16734,9 +18235,11 @@
       <c r="AF66" s="28"/>
       <c r="AG66" s="29"/>
     </row>
-    <row r="67" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B67" s="62"/>
-      <c r="C67" s="65"/>
+    <row r="67" spans="2:33">
+      <c r="B67" s="69"/>
+      <c r="C67" s="92">
+        <v>44964</v>
+      </c>
       <c r="D67" s="6" t="s">
         <v>72</v>
       </c>
@@ -16824,9 +18327,11 @@
       <c r="AF67" s="22"/>
       <c r="AG67" s="9"/>
     </row>
-    <row r="68" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B68" s="63"/>
-      <c r="C68" s="66"/>
+    <row r="68" spans="2:33">
+      <c r="B68" s="70"/>
+      <c r="C68" s="92">
+        <v>44964</v>
+      </c>
       <c r="D68" s="6" t="s">
         <v>74</v>
       </c>
@@ -16906,11 +18411,11 @@
       <c r="AF68" s="22"/>
       <c r="AG68" s="9"/>
     </row>
-    <row r="69" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B69" s="61">
+    <row r="69" spans="2:33">
+      <c r="B69" s="68">
         <v>14</v>
       </c>
-      <c r="C69" s="64">
+      <c r="C69" s="92">
         <v>44971</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -17000,9 +18505,11 @@
       <c r="AF69" s="28"/>
       <c r="AG69" s="9"/>
     </row>
-    <row r="70" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B70" s="62"/>
-      <c r="C70" s="65"/>
+    <row r="70" spans="2:33">
+      <c r="B70" s="69"/>
+      <c r="C70" s="92">
+        <v>44971</v>
+      </c>
       <c r="D70" s="6" t="s">
         <v>72</v>
       </c>
@@ -17090,9 +18597,11 @@
       <c r="AF70" s="22"/>
       <c r="AG70" s="9"/>
     </row>
-    <row r="71" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B71" s="63"/>
-      <c r="C71" s="66"/>
+    <row r="71" spans="2:33">
+      <c r="B71" s="70"/>
+      <c r="C71" s="92">
+        <v>44971</v>
+      </c>
       <c r="D71" s="6" t="s">
         <v>74</v>
       </c>
@@ -17172,11 +18681,11 @@
       <c r="AF71" s="22"/>
       <c r="AG71" s="9"/>
     </row>
-    <row r="72" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B72" s="61">
+    <row r="72" spans="2:33">
+      <c r="B72" s="68">
         <v>15</v>
       </c>
-      <c r="C72" s="64">
+      <c r="C72" s="92">
         <v>44978</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -17266,9 +18775,11 @@
       <c r="AF72" s="28"/>
       <c r="AG72" s="9"/>
     </row>
-    <row r="73" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B73" s="62"/>
-      <c r="C73" s="65"/>
+    <row r="73" spans="2:33">
+      <c r="B73" s="69"/>
+      <c r="C73" s="92">
+        <v>44978</v>
+      </c>
       <c r="D73" s="6" t="s">
         <v>72</v>
       </c>
@@ -17356,9 +18867,11 @@
       <c r="AF73" s="22"/>
       <c r="AG73" s="9"/>
     </row>
-    <row r="74" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B74" s="63"/>
-      <c r="C74" s="66"/>
+    <row r="74" spans="2:33">
+      <c r="B74" s="70"/>
+      <c r="C74" s="92">
+        <v>44978</v>
+      </c>
       <c r="D74" s="6" t="s">
         <v>74</v>
       </c>
@@ -17438,11 +18951,11 @@
       <c r="AF74" s="22"/>
       <c r="AG74" s="9"/>
     </row>
-    <row r="75" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B75" s="61">
+    <row r="75" spans="2:33">
+      <c r="B75" s="68">
         <v>16</v>
       </c>
-      <c r="C75" s="64">
+      <c r="C75" s="92">
         <v>44985</v>
       </c>
       <c r="D75" s="6" t="s">
@@ -17532,9 +19045,11 @@
       <c r="AF75" s="22"/>
       <c r="AG75" s="9"/>
     </row>
-    <row r="76" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B76" s="62"/>
-      <c r="C76" s="65"/>
+    <row r="76" spans="2:33">
+      <c r="B76" s="69"/>
+      <c r="C76" s="92">
+        <v>44985</v>
+      </c>
       <c r="D76" s="6" t="s">
         <v>72</v>
       </c>
@@ -17622,9 +19137,11 @@
       <c r="AF76" s="22"/>
       <c r="AG76" s="9"/>
     </row>
-    <row r="77" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B77" s="63"/>
-      <c r="C77" s="66"/>
+    <row r="77" spans="2:33">
+      <c r="B77" s="70"/>
+      <c r="C77" s="92">
+        <v>44985</v>
+      </c>
       <c r="D77" s="6" t="s">
         <v>74</v>
       </c>
@@ -17704,11 +19221,11 @@
       <c r="AF77" s="22"/>
       <c r="AG77" s="9"/>
     </row>
-    <row r="78" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B78" s="61">
+    <row r="78" spans="2:33">
+      <c r="B78" s="68">
         <v>17</v>
       </c>
-      <c r="C78" s="64">
+      <c r="C78" s="92">
         <v>44992</v>
       </c>
       <c r="D78" s="25" t="s">
@@ -17800,9 +19317,11 @@
       </c>
       <c r="AG78" s="29"/>
     </row>
-    <row r="79" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B79" s="62"/>
-      <c r="C79" s="65"/>
+    <row r="79" spans="2:33">
+      <c r="B79" s="69"/>
+      <c r="C79" s="92">
+        <v>44992</v>
+      </c>
       <c r="D79" s="6" t="s">
         <v>72</v>
       </c>
@@ -17892,9 +19411,11 @@
       </c>
       <c r="AG79" s="9"/>
     </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B80" s="63"/>
-      <c r="C80" s="66"/>
+    <row r="80" spans="2:33">
+      <c r="B80" s="70"/>
+      <c r="C80" s="93">
+        <v>44992</v>
+      </c>
       <c r="D80" s="6" t="s">
         <v>74</v>
       </c>
@@ -17974,54 +19495,35 @@
       <c r="AF80" s="22"/>
       <c r="AG80" s="9"/>
     </row>
-    <row r="82" spans="33:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="33:33">
       <c r="AG82" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="33:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="33:33">
       <c r="AG83" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C51:C53"/>
+  <mergeCells count="19">
     <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="AG27:AG29"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B51:B53"/>
     <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
     <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
     <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
     <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
     <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
     <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18040,7 +19542,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.125" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
@@ -18054,7 +19556,7 @@
     <col min="15" max="19" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="22.5">
       <c r="A1" s="39"/>
       <c r="B1" s="40" t="s">
         <v>68</v>
@@ -18072,7 +19574,7 @@
       <c r="M1" s="41"/>
       <c r="N1" s="41"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -18087,7 +19589,7 @@
       <c r="M2" s="41"/>
       <c r="N2" s="41"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="18.75">
       <c r="B3" s="42" t="s">
         <v>58</v>
       </c>
@@ -18106,8 +19608,8 @@
       </c>
       <c r="N3" s="41"/>
     </row>
-    <row r="26" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="17.25" thickBot="1"/>
+    <row r="27" spans="2:19">
       <c r="B27" s="83" t="s">
         <v>69</v>
       </c>
@@ -18118,55 +19620,55 @@
       <c r="G27" s="84"/>
       <c r="H27" s="84"/>
       <c r="I27" s="84"/>
-      <c r="J27" s="80" t="s">
+      <c r="J27" s="76" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="41"/>
-      <c r="M27" s="82" t="s">
+      <c r="M27" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="80" t="s">
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="76" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19">
       <c r="B28" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="86"/>
-      <c r="D28" s="88" t="s">
+      <c r="D28" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88" t="s">
+      <c r="E28" s="89"/>
+      <c r="F28" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88" t="s">
+      <c r="G28" s="89"/>
+      <c r="H28" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="88"/>
-      <c r="J28" s="81"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="77"/>
       <c r="M28" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="71"/>
-      <c r="O28" s="69" t="s">
+      <c r="N28" s="88"/>
+      <c r="O28" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="69" t="s">
+      <c r="P28" s="82"/>
+      <c r="Q28" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="70"/>
-      <c r="S28" s="81"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="77"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19">
       <c r="B29" s="54" t="s">
         <v>0</v>
       </c>
@@ -18212,7 +19714,7 @@
       </c>
       <c r="S29" s="38"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19">
       <c r="B30" s="47">
         <v>1</v>
       </c>
@@ -18264,7 +19766,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19">
       <c r="B31" s="47">
         <v>2</v>
       </c>
@@ -18321,7 +19823,7 @@
       </c>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19">
       <c r="B32" s="47">
         <v>3</v>
       </c>
@@ -18378,7 +19880,7 @@
       </c>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19">
       <c r="B33" s="47">
         <v>4</v>
       </c>
@@ -18435,7 +19937,7 @@
       </c>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19">
       <c r="B34" s="47">
         <v>5</v>
       </c>
@@ -18492,7 +19994,7 @@
       </c>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19">
       <c r="B35" s="47">
         <v>6</v>
       </c>
@@ -18549,7 +20051,7 @@
       </c>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:19" ht="17.25" thickBot="1">
       <c r="B36" s="30">
         <v>7</v>
       </c>
@@ -18606,7 +20108,7 @@
       </c>
       <c r="S36" s="37"/>
     </row>
-    <row r="37" spans="2:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" ht="17.25" thickTop="1">
       <c r="B37" s="50">
         <v>8</v>
       </c>
@@ -18663,7 +20165,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19">
       <c r="B38" s="47">
         <v>9</v>
       </c>
@@ -18720,7 +20222,7 @@
       </c>
       <c r="S38" s="33"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19">
       <c r="B39" s="47">
         <v>10</v>
       </c>
@@ -18777,7 +20279,7 @@
       </c>
       <c r="S39" s="33"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19">
       <c r="B40" s="47">
         <v>11</v>
       </c>
@@ -18834,7 +20336,7 @@
       </c>
       <c r="S40" s="33"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19">
       <c r="B41" s="47">
         <v>12</v>
       </c>
@@ -18891,7 +20393,7 @@
       </c>
       <c r="S41" s="33"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19">
       <c r="B42" s="47">
         <v>13</v>
       </c>
@@ -18947,7 +20449,7 @@
       </c>
       <c r="S42" s="33"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19">
       <c r="B43" s="47">
         <v>14</v>
       </c>
@@ -19003,7 +20505,7 @@
       </c>
       <c r="S43" s="33"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19">
       <c r="B44" s="47">
         <v>15</v>
       </c>
@@ -19059,7 +20561,7 @@
       </c>
       <c r="S44" s="33"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19">
       <c r="B45" s="47">
         <v>16</v>
       </c>
@@ -19115,7 +20617,7 @@
       </c>
       <c r="S45" s="33"/>
     </row>
-    <row r="46" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:19" ht="17.25" thickBot="1">
       <c r="B46" s="51">
         <v>17</v>
       </c>

--- a/it_data.xlsx
+++ b/it_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1. IT 전체 개별단가" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
   <si>
     <t>NO</t>
   </si>
@@ -643,27 +643,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1114,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,109 +1112,109 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="9" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1244,64 +1229,49 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="9" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="17" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,49 +1280,76 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,41 +1358,20 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1499,7 +1475,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1628,7 +1603,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1712,59 +1686,7 @@
                     <c:v>다나와</c:v>
                   </c:pt>
                 </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2022-11-08</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2022-11-29</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2022-12-02</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2022-12-06</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2022-12-13</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2022-12-20</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2022-12-27</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2023-01-03</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2023-01-10</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2023-01-17</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2023-01-24</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2023-01-31</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2023-02-07</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2023-02-14</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2023-02-21</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2023-02-28</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2023-03-07</c:v>
-                  </c:pt>
-                </c:lvl>
+                <c:lvl/>
                 <c:lvl/>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -1926,7 +1848,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2010,59 +1931,7 @@
                     <c:v>다나와</c:v>
                   </c:pt>
                 </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2022-11-08</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2022-11-29</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2022-12-02</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2022-12-06</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2022-12-13</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2022-12-20</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2022-12-27</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2023-01-03</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2023-01-10</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2023-01-17</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2023-01-24</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2023-01-31</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2023-02-07</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2023-02-14</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2023-02-21</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2023-02-28</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2023-03-07</c:v>
-                  </c:pt>
-                </c:lvl>
+                <c:lvl/>
                 <c:lvl/>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -2224,7 +2093,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2308,59 +2176,7 @@
                     <c:v>다나와</c:v>
                   </c:pt>
                 </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2022-11-08</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2022-11-29</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2022-12-02</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2022-12-06</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2022-12-13</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2022-12-20</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2022-12-27</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2023-01-03</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2023-01-10</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2023-01-17</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2023-01-24</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2023-01-31</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2023-02-07</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2023-02-14</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2023-02-21</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2023-02-28</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2023-03-07</c:v>
-                  </c:pt>
-                </c:lvl>
+                <c:lvl/>
                 <c:lvl/>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -2524,7 +2340,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2608,59 +2423,7 @@
                     <c:v>다나와</c:v>
                   </c:pt>
                 </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2022-11-08</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2022-11-29</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2022-12-02</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2022-12-06</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2022-12-13</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2022-12-20</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2022-12-27</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2023-01-03</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2023-01-10</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2023-01-17</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2023-01-24</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2023-01-31</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2023-02-07</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2023-02-14</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2023-02-21</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2023-02-28</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2023-03-07</c:v>
-                  </c:pt>
-                </c:lvl>
+                <c:lvl/>
                 <c:lvl/>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -2824,7 +2587,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2908,59 +2670,7 @@
                     <c:v>다나와</c:v>
                   </c:pt>
                 </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2022-11-08</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2022-11-29</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2022-12-02</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2022-12-06</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2022-12-13</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2022-12-20</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2022-12-27</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2023-01-03</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2023-01-10</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2023-01-17</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2023-01-24</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2023-01-31</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2023-02-07</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2023-02-14</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2023-02-21</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2023-02-28</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2023-03-07</c:v>
-                  </c:pt>
-                </c:lvl>
+                <c:lvl/>
                 <c:lvl/>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -3224,59 +2934,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -3529,59 +3187,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -3834,59 +3440,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -4139,59 +3693,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -4444,59 +3946,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -4718,59 +4168,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -5025,59 +4423,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -5332,59 +4678,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -5639,59 +4933,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -5946,59 +5188,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -6221,59 +5411,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -6529,59 +5667,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -6837,59 +5923,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -7145,59 +6179,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -7453,59 +6435,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -7727,59 +6657,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -8034,59 +6912,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -8341,59 +7167,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -8647,59 +7421,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -8903,59 +7625,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -9159,59 +7829,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -9415,59 +8033,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -9671,59 +8237,7 @@
                           <c:v>다나와</c:v>
                         </c:pt>
                       </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>2022-11-08</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2022-11-29</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2022-12-02</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2022-12-06</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2022-12-13</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2022-12-20</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2022-12-27</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2023-01-03</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2023-01-10</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2023-01-17</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2023-01-24</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2023-01-31</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2023-02-07</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2023-02-14</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2023-02-21</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>2023-02-28</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>2023-03-07</c:v>
-                        </c:pt>
-                      </c:lvl>
+                      <c:lvl/>
                       <c:lvl/>
                     </c:multiLvlStrCache>
                   </c:multiLvlStrRef>
@@ -9995,6 +8509,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10260,6 +8775,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10525,6 +9041,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11770,6 +10287,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12035,6 +10553,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12791,6 +11310,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14907,9 +13427,7 @@
   </sheetPr>
   <dimension ref="B1:AG83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -14975,108 +13493,104 @@
       <c r="AG1" s="3"/>
     </row>
     <row r="26" spans="2:33" ht="17.25" thickBot="1"/>
-    <row r="27" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B27" s="73" t="s">
+    <row r="27" spans="2:33">
+      <c r="B27" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="61" t="s">
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="71" t="s">
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B28" s="74"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="64" t="s">
+    <row r="28" spans="2:33">
+      <c r="B28" s="79"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="64" t="s">
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="64" t="s">
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="64" t="s">
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="64" t="s">
+      <c r="X28" s="62"/>
+      <c r="Y28" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="60" t="s">
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AC28" s="64" t="s">
+      <c r="AC28" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="72"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="77"/>
     </row>
     <row r="29" spans="2:33" ht="27.75" thickBot="1">
-      <c r="B29" s="75"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="67" t="s">
-        <v>2</v>
-      </c>
+      <c r="B29" s="80"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
@@ -15158,16 +13672,16 @@
       <c r="AE29" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AF29" s="59" t="s">
+      <c r="AF29" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="AG29" s="72"/>
+      <c r="AG29" s="77"/>
     </row>
     <row r="30" spans="2:33">
-      <c r="B30" s="68">
+      <c r="B30" s="67">
         <v>1</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="70">
         <v>44873</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -15244,10 +13758,8 @@
       <c r="AG30" s="16"/>
     </row>
     <row r="31" spans="2:33">
-      <c r="B31" s="69"/>
-      <c r="C31" s="92">
-        <v>44873</v>
-      </c>
+      <c r="B31" s="68"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="6" t="s">
         <v>73</v>
       </c>
@@ -15322,10 +13834,8 @@
       <c r="AG31" s="9"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="70"/>
-      <c r="C32" s="92">
-        <v>44873</v>
-      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="6" t="s">
         <v>75</v>
       </c>
@@ -15400,10 +13910,10 @@
       <c r="AG32" s="9"/>
     </row>
     <row r="33" spans="2:33">
-      <c r="B33" s="68">
+      <c r="B33" s="67">
         <v>2</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="70">
         <v>44894</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -15480,10 +13990,8 @@
       <c r="AG33" s="9"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="B34" s="69"/>
-      <c r="C34" s="92">
-        <v>44894</v>
-      </c>
+      <c r="B34" s="68"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="6" t="s">
         <v>72</v>
       </c>
@@ -15558,10 +14066,8 @@
       <c r="AG34" s="9"/>
     </row>
     <row r="35" spans="2:33">
-      <c r="B35" s="70"/>
-      <c r="C35" s="92">
-        <v>44894</v>
-      </c>
+      <c r="B35" s="69"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="6" t="s">
         <v>74</v>
       </c>
@@ -15636,10 +14142,10 @@
       <c r="AG35" s="9"/>
     </row>
     <row r="36" spans="2:33">
-      <c r="B36" s="68">
+      <c r="B36" s="67">
         <v>3</v>
       </c>
-      <c r="C36" s="92">
+      <c r="C36" s="70">
         <v>44897</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -15716,10 +14222,8 @@
       <c r="AG36" s="9"/>
     </row>
     <row r="37" spans="2:33">
-      <c r="B37" s="69"/>
-      <c r="C37" s="92">
-        <v>44897</v>
-      </c>
+      <c r="B37" s="68"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="6" t="s">
         <v>72</v>
       </c>
@@ -15794,10 +14298,8 @@
       <c r="AG37" s="9"/>
     </row>
     <row r="38" spans="2:33">
-      <c r="B38" s="70"/>
-      <c r="C38" s="92">
-        <v>44897</v>
-      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="6" t="s">
         <v>74</v>
       </c>
@@ -15872,10 +14374,10 @@
       <c r="AG38" s="9"/>
     </row>
     <row r="39" spans="2:33">
-      <c r="B39" s="68">
+      <c r="B39" s="67">
         <v>4</v>
       </c>
-      <c r="C39" s="92">
+      <c r="C39" s="70">
         <v>44901</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -15952,10 +14454,8 @@
       <c r="AG39" s="9"/>
     </row>
     <row r="40" spans="2:33">
-      <c r="B40" s="69"/>
-      <c r="C40" s="92">
-        <v>44901</v>
-      </c>
+      <c r="B40" s="68"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="6" t="s">
         <v>72</v>
       </c>
@@ -16030,10 +14530,8 @@
       <c r="AG40" s="9"/>
     </row>
     <row r="41" spans="2:33">
-      <c r="B41" s="70"/>
-      <c r="C41" s="92">
-        <v>44901</v>
-      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="6" t="s">
         <v>74</v>
       </c>
@@ -16108,10 +14606,10 @@
       <c r="AG41" s="9"/>
     </row>
     <row r="42" spans="2:33">
-      <c r="B42" s="68">
+      <c r="B42" s="67">
         <v>5</v>
       </c>
-      <c r="C42" s="92">
+      <c r="C42" s="70">
         <v>44908</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -16196,10 +14694,8 @@
       <c r="AG42" s="9"/>
     </row>
     <row r="43" spans="2:33">
-      <c r="B43" s="69"/>
-      <c r="C43" s="92">
-        <v>44908</v>
-      </c>
+      <c r="B43" s="68"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="6" t="s">
         <v>72</v>
       </c>
@@ -16282,10 +14778,8 @@
       <c r="AG43" s="9"/>
     </row>
     <row r="44" spans="2:33">
-      <c r="B44" s="70"/>
-      <c r="C44" s="92">
-        <v>44908</v>
-      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="6" t="s">
         <v>74</v>
       </c>
@@ -16360,10 +14854,10 @@
       <c r="AG44" s="9"/>
     </row>
     <row r="45" spans="2:33">
-      <c r="B45" s="68">
+      <c r="B45" s="67">
         <v>6</v>
       </c>
-      <c r="C45" s="92">
+      <c r="C45" s="70">
         <v>44915</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -16448,10 +14942,8 @@
       <c r="AG45" s="9"/>
     </row>
     <row r="46" spans="2:33">
-      <c r="B46" s="69"/>
-      <c r="C46" s="92">
-        <v>44915</v>
-      </c>
+      <c r="B46" s="68"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="6" t="s">
         <v>72</v>
       </c>
@@ -16534,10 +15026,8 @@
       <c r="AG46" s="9"/>
     </row>
     <row r="47" spans="2:33">
-      <c r="B47" s="70"/>
-      <c r="C47" s="92">
-        <v>44915</v>
-      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="6" t="s">
         <v>74</v>
       </c>
@@ -16612,10 +15102,10 @@
       <c r="AG47" s="9"/>
     </row>
     <row r="48" spans="2:33">
-      <c r="B48" s="68">
+      <c r="B48" s="67">
         <v>7</v>
       </c>
-      <c r="C48" s="92">
+      <c r="C48" s="70">
         <v>44922</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -16700,10 +15190,8 @@
       <c r="AG48" s="9"/>
     </row>
     <row r="49" spans="2:33">
-      <c r="B49" s="69"/>
-      <c r="C49" s="92">
-        <v>44922</v>
-      </c>
+      <c r="B49" s="68"/>
+      <c r="C49" s="71"/>
       <c r="D49" s="6" t="s">
         <v>72</v>
       </c>
@@ -16786,10 +15274,8 @@
       <c r="AG49" s="9"/>
     </row>
     <row r="50" spans="2:33">
-      <c r="B50" s="70"/>
-      <c r="C50" s="92">
-        <v>44922</v>
-      </c>
+      <c r="B50" s="69"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="6" t="s">
         <v>74</v>
       </c>
@@ -16864,10 +15350,10 @@
       <c r="AG50" s="9"/>
     </row>
     <row r="51" spans="2:33">
-      <c r="B51" s="68">
+      <c r="B51" s="67">
         <v>8</v>
       </c>
-      <c r="C51" s="92">
+      <c r="C51" s="70">
         <v>44929</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -16952,10 +15438,8 @@
       <c r="AG51" s="9"/>
     </row>
     <row r="52" spans="2:33">
-      <c r="B52" s="69"/>
-      <c r="C52" s="92">
-        <v>44929</v>
-      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="6" t="s">
         <v>72</v>
       </c>
@@ -17038,10 +15522,8 @@
       <c r="AG52" s="9"/>
     </row>
     <row r="53" spans="2:33">
-      <c r="B53" s="70"/>
-      <c r="C53" s="92">
-        <v>44929</v>
-      </c>
+      <c r="B53" s="69"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="6" t="s">
         <v>74</v>
       </c>
@@ -17116,10 +15598,10 @@
       <c r="AG53" s="9"/>
     </row>
     <row r="54" spans="2:33">
-      <c r="B54" s="68">
+      <c r="B54" s="67">
         <v>9</v>
       </c>
-      <c r="C54" s="92">
+      <c r="C54" s="70">
         <v>44936</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -17204,10 +15686,8 @@
       <c r="AG54" s="29"/>
     </row>
     <row r="55" spans="2:33">
-      <c r="B55" s="69"/>
-      <c r="C55" s="92">
-        <v>44936</v>
-      </c>
+      <c r="B55" s="68"/>
+      <c r="C55" s="71"/>
       <c r="D55" s="6" t="s">
         <v>72</v>
       </c>
@@ -17290,10 +15770,8 @@
       <c r="AG55" s="9"/>
     </row>
     <row r="56" spans="2:33">
-      <c r="B56" s="70"/>
-      <c r="C56" s="92">
-        <v>44936</v>
-      </c>
+      <c r="B56" s="69"/>
+      <c r="C56" s="72"/>
       <c r="D56" s="6" t="s">
         <v>74</v>
       </c>
@@ -17368,10 +15846,10 @@
       <c r="AG56" s="9"/>
     </row>
     <row r="57" spans="2:33">
-      <c r="B57" s="68">
+      <c r="B57" s="67">
         <v>10</v>
       </c>
-      <c r="C57" s="92">
+      <c r="C57" s="70">
         <v>44943</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -17456,10 +15934,8 @@
       <c r="AG57" s="29"/>
     </row>
     <row r="58" spans="2:33">
-      <c r="B58" s="69"/>
-      <c r="C58" s="92">
-        <v>44943</v>
-      </c>
+      <c r="B58" s="68"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="6" t="s">
         <v>72</v>
       </c>
@@ -17542,10 +16018,8 @@
       <c r="AG58" s="9"/>
     </row>
     <row r="59" spans="2:33">
-      <c r="B59" s="70"/>
-      <c r="C59" s="92">
-        <v>44943</v>
-      </c>
+      <c r="B59" s="69"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="6" t="s">
         <v>74</v>
       </c>
@@ -17620,10 +16094,10 @@
       <c r="AG59" s="9"/>
     </row>
     <row r="60" spans="2:33">
-      <c r="B60" s="68">
+      <c r="B60" s="67">
         <v>11</v>
       </c>
-      <c r="C60" s="92">
+      <c r="C60" s="70">
         <v>44950</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -17708,10 +16182,8 @@
       <c r="AG60" s="9"/>
     </row>
     <row r="61" spans="2:33">
-      <c r="B61" s="69"/>
-      <c r="C61" s="92">
-        <v>44950</v>
-      </c>
+      <c r="B61" s="68"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="6" t="s">
         <v>72</v>
       </c>
@@ -17794,10 +16266,8 @@
       <c r="AG61" s="9"/>
     </row>
     <row r="62" spans="2:33">
-      <c r="B62" s="70"/>
-      <c r="C62" s="92">
-        <v>44950</v>
-      </c>
+      <c r="B62" s="69"/>
+      <c r="C62" s="72"/>
       <c r="D62" s="6" t="s">
         <v>74</v>
       </c>
@@ -17872,10 +16342,10 @@
       <c r="AG62" s="9"/>
     </row>
     <row r="63" spans="2:33">
-      <c r="B63" s="68">
+      <c r="B63" s="67">
         <v>12</v>
       </c>
-      <c r="C63" s="92">
+      <c r="C63" s="70">
         <v>44957</v>
       </c>
       <c r="D63" s="25" t="s">
@@ -17966,10 +16436,8 @@
       <c r="AG63" s="29"/>
     </row>
     <row r="64" spans="2:33">
-      <c r="B64" s="69"/>
-      <c r="C64" s="92">
-        <v>44957</v>
-      </c>
+      <c r="B64" s="68"/>
+      <c r="C64" s="71"/>
       <c r="D64" s="6" t="s">
         <v>72</v>
       </c>
@@ -18058,10 +16526,8 @@
       <c r="AG64" s="9"/>
     </row>
     <row r="65" spans="2:33">
-      <c r="B65" s="70"/>
-      <c r="C65" s="92">
-        <v>44957</v>
-      </c>
+      <c r="B65" s="69"/>
+      <c r="C65" s="72"/>
       <c r="D65" s="6" t="s">
         <v>74</v>
       </c>
@@ -18142,10 +16608,10 @@
       <c r="AG65" s="9"/>
     </row>
     <row r="66" spans="2:33">
-      <c r="B66" s="68">
+      <c r="B66" s="67">
         <v>13</v>
       </c>
-      <c r="C66" s="92">
+      <c r="C66" s="70">
         <v>44964</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -18236,10 +16702,8 @@
       <c r="AG66" s="29"/>
     </row>
     <row r="67" spans="2:33">
-      <c r="B67" s="69"/>
-      <c r="C67" s="92">
-        <v>44964</v>
-      </c>
+      <c r="B67" s="68"/>
+      <c r="C67" s="71"/>
       <c r="D67" s="6" t="s">
         <v>72</v>
       </c>
@@ -18328,10 +16792,8 @@
       <c r="AG67" s="9"/>
     </row>
     <row r="68" spans="2:33">
-      <c r="B68" s="70"/>
-      <c r="C68" s="92">
-        <v>44964</v>
-      </c>
+      <c r="B68" s="69"/>
+      <c r="C68" s="72"/>
       <c r="D68" s="6" t="s">
         <v>74</v>
       </c>
@@ -18412,10 +16874,10 @@
       <c r="AG68" s="9"/>
     </row>
     <row r="69" spans="2:33">
-      <c r="B69" s="68">
+      <c r="B69" s="67">
         <v>14</v>
       </c>
-      <c r="C69" s="92">
+      <c r="C69" s="70">
         <v>44971</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -18506,10 +16968,8 @@
       <c r="AG69" s="9"/>
     </row>
     <row r="70" spans="2:33">
-      <c r="B70" s="69"/>
-      <c r="C70" s="92">
-        <v>44971</v>
-      </c>
+      <c r="B70" s="68"/>
+      <c r="C70" s="71"/>
       <c r="D70" s="6" t="s">
         <v>72</v>
       </c>
@@ -18598,10 +17058,8 @@
       <c r="AG70" s="9"/>
     </row>
     <row r="71" spans="2:33">
-      <c r="B71" s="70"/>
-      <c r="C71" s="92">
-        <v>44971</v>
-      </c>
+      <c r="B71" s="69"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="6" t="s">
         <v>74</v>
       </c>
@@ -18682,10 +17140,10 @@
       <c r="AG71" s="9"/>
     </row>
     <row r="72" spans="2:33">
-      <c r="B72" s="68">
+      <c r="B72" s="67">
         <v>15</v>
       </c>
-      <c r="C72" s="92">
+      <c r="C72" s="70">
         <v>44978</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -18776,10 +17234,8 @@
       <c r="AG72" s="9"/>
     </row>
     <row r="73" spans="2:33">
-      <c r="B73" s="69"/>
-      <c r="C73" s="92">
-        <v>44978</v>
-      </c>
+      <c r="B73" s="68"/>
+      <c r="C73" s="71"/>
       <c r="D73" s="6" t="s">
         <v>72</v>
       </c>
@@ -18868,10 +17324,8 @@
       <c r="AG73" s="9"/>
     </row>
     <row r="74" spans="2:33">
-      <c r="B74" s="70"/>
-      <c r="C74" s="92">
-        <v>44978</v>
-      </c>
+      <c r="B74" s="69"/>
+      <c r="C74" s="72"/>
       <c r="D74" s="6" t="s">
         <v>74</v>
       </c>
@@ -18952,10 +17406,10 @@
       <c r="AG74" s="9"/>
     </row>
     <row r="75" spans="2:33">
-      <c r="B75" s="68">
+      <c r="B75" s="67">
         <v>16</v>
       </c>
-      <c r="C75" s="92">
+      <c r="C75" s="70">
         <v>44985</v>
       </c>
       <c r="D75" s="6" t="s">
@@ -19046,10 +17500,8 @@
       <c r="AG75" s="9"/>
     </row>
     <row r="76" spans="2:33">
-      <c r="B76" s="69"/>
-      <c r="C76" s="92">
-        <v>44985</v>
-      </c>
+      <c r="B76" s="68"/>
+      <c r="C76" s="71"/>
       <c r="D76" s="6" t="s">
         <v>72</v>
       </c>
@@ -19138,10 +17590,8 @@
       <c r="AG76" s="9"/>
     </row>
     <row r="77" spans="2:33">
-      <c r="B77" s="70"/>
-      <c r="C77" s="92">
-        <v>44985</v>
-      </c>
+      <c r="B77" s="69"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="6" t="s">
         <v>74</v>
       </c>
@@ -19222,10 +17672,10 @@
       <c r="AG77" s="9"/>
     </row>
     <row r="78" spans="2:33">
-      <c r="B78" s="68">
+      <c r="B78" s="67">
         <v>17</v>
       </c>
-      <c r="C78" s="92">
+      <c r="C78" s="70">
         <v>44992</v>
       </c>
       <c r="D78" s="25" t="s">
@@ -19240,61 +17690,61 @@
       <c r="G78" s="7">
         <v>18000</v>
       </c>
-      <c r="H78" s="55">
+      <c r="H78" s="51">
         <v>22000</v>
       </c>
-      <c r="I78" s="56">
+      <c r="I78" s="52">
         <v>65000</v>
       </c>
-      <c r="J78" s="56">
+      <c r="J78" s="52">
         <v>75000</v>
       </c>
-      <c r="K78" s="56">
+      <c r="K78" s="52">
         <v>8000</v>
       </c>
-      <c r="L78" s="56">
+      <c r="L78" s="52">
         <v>17000</v>
       </c>
-      <c r="M78" s="56">
+      <c r="M78" s="52">
         <v>37000</v>
       </c>
-      <c r="N78" s="55">
+      <c r="N78" s="51">
         <v>50000</v>
       </c>
-      <c r="O78" s="56">
+      <c r="O78" s="52">
         <v>85000</v>
       </c>
-      <c r="P78" s="56">
+      <c r="P78" s="52">
         <v>100000</v>
       </c>
-      <c r="Q78" s="56">
+      <c r="Q78" s="52">
         <v>40000</v>
       </c>
-      <c r="R78" s="56">
+      <c r="R78" s="52">
         <v>45000</v>
       </c>
-      <c r="S78" s="56">
+      <c r="S78" s="52">
         <v>80000</v>
       </c>
-      <c r="T78" s="55">
+      <c r="T78" s="51">
         <v>130000</v>
       </c>
-      <c r="U78" s="56">
+      <c r="U78" s="52">
         <v>155000</v>
       </c>
-      <c r="V78" s="56">
+      <c r="V78" s="52">
         <v>220000</v>
       </c>
-      <c r="W78" s="55">
+      <c r="W78" s="51">
         <v>1000</v>
       </c>
-      <c r="X78" s="56">
+      <c r="X78" s="52">
         <v>15000</v>
       </c>
-      <c r="Y78" s="56">
+      <c r="Y78" s="52">
         <v>4000</v>
       </c>
-      <c r="Z78" s="55">
+      <c r="Z78" s="51">
         <v>12000</v>
       </c>
       <c r="AA78" s="7">
@@ -19318,10 +17768,8 @@
       <c r="AG78" s="29"/>
     </row>
     <row r="79" spans="2:33">
-      <c r="B79" s="69"/>
-      <c r="C79" s="92">
-        <v>44992</v>
-      </c>
+      <c r="B79" s="68"/>
+      <c r="C79" s="71"/>
       <c r="D79" s="6" t="s">
         <v>72</v>
       </c>
@@ -19334,61 +17782,61 @@
       <c r="G79" s="7">
         <v>18000</v>
       </c>
-      <c r="H79" s="55">
+      <c r="H79" s="51">
         <v>27000</v>
       </c>
-      <c r="I79" s="56">
+      <c r="I79" s="52">
         <v>65000</v>
       </c>
-      <c r="J79" s="56">
+      <c r="J79" s="52">
         <v>75000</v>
       </c>
-      <c r="K79" s="56">
+      <c r="K79" s="52">
         <v>9000</v>
       </c>
-      <c r="L79" s="56">
+      <c r="L79" s="52">
         <v>20000</v>
       </c>
-      <c r="M79" s="56">
+      <c r="M79" s="52">
         <v>37000</v>
       </c>
-      <c r="N79" s="55">
+      <c r="N79" s="51">
         <v>55000</v>
       </c>
-      <c r="O79" s="56">
+      <c r="O79" s="52">
         <v>85000</v>
       </c>
-      <c r="P79" s="56">
+      <c r="P79" s="52">
         <v>110000</v>
       </c>
-      <c r="Q79" s="56">
+      <c r="Q79" s="52">
         <v>40000</v>
       </c>
-      <c r="R79" s="56">
+      <c r="R79" s="52">
         <v>60000</v>
       </c>
-      <c r="S79" s="56">
+      <c r="S79" s="52">
         <v>85000</v>
       </c>
-      <c r="T79" s="55">
+      <c r="T79" s="51">
         <v>130000</v>
       </c>
-      <c r="U79" s="56">
+      <c r="U79" s="52">
         <v>165000</v>
       </c>
-      <c r="V79" s="56">
+      <c r="V79" s="52">
         <v>240000</v>
       </c>
-      <c r="W79" s="55">
+      <c r="W79" s="51">
         <v>1000</v>
       </c>
-      <c r="X79" s="56">
+      <c r="X79" s="52">
         <v>15000</v>
       </c>
-      <c r="Y79" s="56">
+      <c r="Y79" s="52">
         <v>4000</v>
       </c>
-      <c r="Z79" s="55">
+      <c r="Z79" s="51">
         <v>15000</v>
       </c>
       <c r="AA79" s="7">
@@ -19412,10 +17860,8 @@
       <c r="AG79" s="9"/>
     </row>
     <row r="80" spans="2:33">
-      <c r="B80" s="70"/>
-      <c r="C80" s="93">
-        <v>44992</v>
-      </c>
+      <c r="B80" s="69"/>
+      <c r="C80" s="72"/>
       <c r="D80" s="6" t="s">
         <v>74</v>
       </c>
@@ -19504,26 +17950,45 @@
       <c r="AG83" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="38">
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C51:C53"/>
     <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
     <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D27:D29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="AG27:AG29"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
     <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C39:C41"/>
     <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
     <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
     <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
     <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
     <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
     <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
     <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
     <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19540,7 +18005,9 @@
   </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -19619,94 +18086,94 @@
       <c r="F27" s="84"/>
       <c r="G27" s="84"/>
       <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="76" t="s">
+      <c r="I27" s="85"/>
+      <c r="J27" s="81" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="41"/>
-      <c r="M27" s="78" t="s">
+      <c r="M27" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="76" t="s">
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="81" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="86"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="89"/>
+      <c r="E28" s="90"/>
       <c r="F28" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="89"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="77"/>
-      <c r="M28" s="87" t="s">
+      <c r="I28" s="90"/>
+      <c r="J28" s="82"/>
+      <c r="M28" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="88"/>
-      <c r="O28" s="81" t="s">
+      <c r="N28" s="87"/>
+      <c r="O28" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="81" t="s">
+      <c r="P28" s="87"/>
+      <c r="Q28" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="82"/>
-      <c r="S28" s="77"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="82"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="58" t="s">
+      <c r="F29" s="54" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="54" t="s">
         <v>46</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="38"/>
-      <c r="M29" s="54" t="s">
+      <c r="M29" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="53" t="s">
+      <c r="N29" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="58" t="s">
+      <c r="O29" s="54" t="s">
         <v>46</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q29" s="58" t="s">
+      <c r="Q29" s="54" t="s">
         <v>46</v>
       </c>
       <c r="R29" s="5" t="s">
@@ -19718,25 +18185,22 @@
       <c r="B30" s="47">
         <v>1</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="48">
         <v>44873</v>
       </c>
       <c r="D30" s="8">
-        <f>'1. IT 전체 개별단가'!H32</f>
         <v>80268</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>'1. IT 전체 개별단가'!N32</f>
         <v>104680</v>
       </c>
       <c r="G30" s="8">
         <v>0</v>
       </c>
       <c r="H30" s="8">
-        <f>'1. IT 전체 개별단가'!T32</f>
         <v>223560</v>
       </c>
       <c r="I30" s="8">
@@ -19747,18 +18211,16 @@
       <c r="M30" s="47">
         <v>1</v>
       </c>
-      <c r="N30" s="49">
+      <c r="N30" s="48">
         <v>44873</v>
       </c>
       <c r="O30" s="8">
-        <f>'1. IT 전체 개별단가'!W32</f>
         <v>4700</v>
       </c>
       <c r="P30" s="8">
         <v>0</v>
       </c>
       <c r="Q30" s="8">
-        <f>'1. IT 전체 개별단가'!Z32</f>
         <v>27890</v>
       </c>
       <c r="R30" s="8">
@@ -19770,31 +18232,25 @@
       <c r="B31" s="47">
         <v>2</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="48">
         <v>44894</v>
       </c>
       <c r="D31" s="8">
-        <f>'1. IT 전체 개별단가'!H35</f>
         <v>80268</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" ref="E31:E37" si="0">D31-D30</f>
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <f>'1. IT 전체 개별단가'!N35</f>
         <v>91900</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" ref="G31:G39" si="1">F31-F30</f>
         <v>-12780</v>
       </c>
       <c r="H31" s="8">
-        <f>'1. IT 전체 개별단가'!T35</f>
         <v>193100</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" ref="I31:I39" si="2">H31-H30</f>
         <v>-30460</v>
       </c>
       <c r="J31" s="9"/>
@@ -19802,23 +18258,19 @@
       <c r="M31" s="47">
         <v>2</v>
       </c>
-      <c r="N31" s="49">
+      <c r="N31" s="48">
         <v>44894</v>
       </c>
       <c r="O31" s="8">
-        <f>'1. IT 전체 개별단가'!W35</f>
         <v>5450</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" ref="P31:P39" si="3">O31-O30</f>
         <v>750</v>
       </c>
       <c r="Q31" s="8">
-        <f>'1. IT 전체 개별단가'!Z35</f>
         <v>25980</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" ref="R31:R39" si="4">Q31-Q30</f>
         <v>-1910</v>
       </c>
       <c r="S31" s="33"/>
@@ -19827,31 +18279,25 @@
       <c r="B32" s="47">
         <v>3</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="48">
         <v>44897</v>
       </c>
       <c r="D32" s="8">
-        <f>'1. IT 전체 개별단가'!H38</f>
         <v>80268</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="8">
-        <f>'1. IT 전체 개별단가'!N38</f>
         <v>88800</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="1"/>
         <v>-3100</v>
       </c>
       <c r="H32" s="8">
-        <f>'1. IT 전체 개별단가'!T38</f>
         <v>187020</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="2"/>
         <v>-6080</v>
       </c>
       <c r="J32" s="9"/>
@@ -19859,23 +18305,19 @@
       <c r="M32" s="47">
         <v>3</v>
       </c>
-      <c r="N32" s="49">
+      <c r="N32" s="48">
         <v>44897</v>
       </c>
       <c r="O32" s="8">
-        <f>'1. IT 전체 개별단가'!W38</f>
         <v>5800</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" si="3"/>
         <v>350</v>
       </c>
       <c r="Q32" s="8">
-        <f>'1. IT 전체 개별단가'!Z38</f>
         <v>24760</v>
       </c>
       <c r="R32" s="8">
-        <f t="shared" si="4"/>
         <v>-1220</v>
       </c>
       <c r="S32" s="33"/>
@@ -19884,31 +18326,25 @@
       <c r="B33" s="47">
         <v>4</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="48">
         <v>44901</v>
       </c>
       <c r="D33" s="8">
-        <f>'1. IT 전체 개별단가'!H41</f>
         <v>80268</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="8">
-        <f>'1. IT 전체 개별단가'!N41</f>
         <v>88450</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="1"/>
         <v>-350</v>
       </c>
       <c r="H33" s="8">
-        <f>'1. IT 전체 개별단가'!T41</f>
         <v>179480</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="2"/>
         <v>-7540</v>
       </c>
       <c r="J33" s="9"/>
@@ -19916,23 +18352,19 @@
       <c r="M33" s="47">
         <v>4</v>
       </c>
-      <c r="N33" s="49">
+      <c r="N33" s="48">
         <v>44901</v>
       </c>
       <c r="O33" s="7">
-        <f>'1. IT 전체 개별단가'!W41</f>
         <v>5560</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="3"/>
         <v>-240</v>
       </c>
       <c r="Q33" s="7">
-        <f>'1. IT 전체 개별단가'!Z41</f>
         <v>24660</v>
       </c>
       <c r="R33" s="8">
-        <f t="shared" si="4"/>
         <v>-100</v>
       </c>
       <c r="S33" s="33"/>
@@ -19941,31 +18373,25 @@
       <c r="B34" s="47">
         <v>5</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="48">
         <v>44908</v>
       </c>
       <c r="D34" s="8">
-        <f>'1. IT 전체 개별단가'!H44</f>
         <v>80268</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="8">
-        <f>'1. IT 전체 개별단가'!N44</f>
         <v>80100</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="1"/>
         <v>-8350</v>
       </c>
       <c r="H34" s="8">
-        <f>'1. IT 전체 개별단가'!T44</f>
         <v>179320</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="2"/>
         <v>-160</v>
       </c>
       <c r="J34" s="9"/>
@@ -19973,23 +18399,19 @@
       <c r="M34" s="47">
         <v>5</v>
       </c>
-      <c r="N34" s="49">
+      <c r="N34" s="48">
         <v>44908</v>
       </c>
       <c r="O34" s="7">
-        <f>'1. IT 전체 개별단가'!W44</f>
         <v>5870</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" si="3"/>
         <v>310</v>
       </c>
       <c r="Q34" s="7">
-        <f>'1. IT 전체 개별단가'!Z44</f>
         <v>25140</v>
       </c>
       <c r="R34" s="8">
-        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="S34" s="33"/>
@@ -19998,31 +18420,25 @@
       <c r="B35" s="47">
         <v>6</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="48">
         <v>44915</v>
       </c>
       <c r="D35" s="8">
-        <f>'1. IT 전체 개별단가'!H47</f>
         <v>80268</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35" s="8">
-        <f>'1. IT 전체 개별단가'!N47</f>
         <v>78900</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="1"/>
         <v>-1200</v>
       </c>
       <c r="H35" s="8">
-        <f>'1. IT 전체 개별단가'!T47</f>
         <v>186840</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="2"/>
         <v>7520</v>
       </c>
       <c r="J35" s="9"/>
@@ -20030,23 +18446,19 @@
       <c r="M35" s="47">
         <v>6</v>
       </c>
-      <c r="N35" s="49">
+      <c r="N35" s="48">
         <v>44915</v>
       </c>
       <c r="O35" s="7">
-        <f>'1. IT 전체 개별단가'!W47</f>
         <v>5510</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="3"/>
         <v>-360</v>
       </c>
       <c r="Q35" s="7">
-        <f>'1. IT 전체 개별단가'!Z47</f>
         <v>25030</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" si="4"/>
         <v>-110</v>
       </c>
       <c r="S35" s="33"/>
@@ -20059,27 +18471,21 @@
         <v>44922</v>
       </c>
       <c r="D36" s="34">
-        <f>'1. IT 전체 개별단가'!H50</f>
         <v>80268</v>
       </c>
       <c r="E36" s="34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="34">
-        <f>'1. IT 전체 개별단가'!N50</f>
         <v>78900</v>
       </c>
       <c r="G36" s="34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="34">
-        <f>'1. IT 전체 개별단가'!T50</f>
         <v>186400</v>
       </c>
       <c r="I36" s="34">
-        <f t="shared" si="2"/>
         <v>-440</v>
       </c>
       <c r="J36" s="32"/>
@@ -20091,76 +18497,62 @@
         <v>44922</v>
       </c>
       <c r="O36" s="36">
-        <f>'1. IT 전체 개별단가'!W50</f>
         <v>5400</v>
       </c>
       <c r="P36" s="34">
-        <f t="shared" si="3"/>
         <v>-110</v>
       </c>
       <c r="Q36" s="36">
-        <f>'1. IT 전체 개별단가'!Z50</f>
         <v>30850</v>
       </c>
       <c r="R36" s="34">
-        <f t="shared" si="4"/>
         <v>5820</v>
       </c>
       <c r="S36" s="37"/>
     </row>
     <row r="37" spans="2:19" ht="17.25" thickTop="1">
-      <c r="B37" s="50">
+      <c r="B37" s="63">
         <v>8</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="64">
         <v>44929</v>
       </c>
       <c r="D37" s="27">
-        <f>'1. IT 전체 개별단가'!H53</f>
         <v>80268</v>
       </c>
       <c r="E37" s="27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="27">
-        <f>'1. IT 전체 개별단가'!N53</f>
         <v>84840</v>
       </c>
       <c r="G37" s="27">
-        <f t="shared" si="1"/>
         <v>5940</v>
       </c>
       <c r="H37" s="27">
-        <f>'1. IT 전체 개별단가'!T53</f>
         <v>173000</v>
       </c>
       <c r="I37" s="27">
-        <f t="shared" si="2"/>
         <v>-13400</v>
       </c>
       <c r="J37" s="29"/>
       <c r="K37" s="10"/>
-      <c r="M37" s="50">
+      <c r="M37" s="63">
         <v>8</v>
       </c>
-      <c r="N37" s="48">
+      <c r="N37" s="64">
         <v>44929</v>
       </c>
       <c r="O37" s="26">
-        <f>'1. IT 전체 개별단가'!W53</f>
         <v>5280</v>
       </c>
       <c r="P37" s="27">
-        <f t="shared" si="3"/>
         <v>-120</v>
       </c>
       <c r="Q37" s="26">
-        <f>'1. IT 전체 개별단가'!Z53</f>
         <v>30720</v>
       </c>
       <c r="R37" s="27">
-        <f t="shared" si="4"/>
         <v>-130</v>
       </c>
       <c r="S37" s="35"/>
@@ -20169,31 +18561,25 @@
       <c r="B38" s="47">
         <v>9</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="48">
         <v>44936</v>
       </c>
       <c r="D38" s="8">
-        <f>'1. IT 전체 개별단가'!H56</f>
         <v>80268</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" ref="E38:E39" si="5">D38-D37</f>
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <f>'1. IT 전체 개별단가'!N56</f>
         <v>84560</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="1"/>
         <v>-280</v>
       </c>
       <c r="H38" s="8">
-        <f>'1. IT 전체 개별단가'!T56</f>
         <v>174780</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="2"/>
         <v>1780</v>
       </c>
       <c r="J38" s="9"/>
@@ -20201,23 +18587,19 @@
       <c r="M38" s="47">
         <v>9</v>
       </c>
-      <c r="N38" s="49">
+      <c r="N38" s="48">
         <v>44936</v>
       </c>
       <c r="O38" s="7">
-        <f>'1. IT 전체 개별단가'!W56</f>
         <v>5000</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="3"/>
         <v>-280</v>
       </c>
       <c r="Q38" s="7">
-        <f>'1. IT 전체 개별단가'!Z56</f>
         <v>24200</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="4"/>
         <v>-6520</v>
       </c>
       <c r="S38" s="33"/>
@@ -20226,31 +18608,25 @@
       <c r="B39" s="47">
         <v>10</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="48">
         <v>44943</v>
       </c>
       <c r="D39" s="8">
-        <f>'1. IT 전체 개별단가'!H59</f>
         <v>80268</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f>'1. IT 전체 개별단가'!N59</f>
         <v>84230</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="1"/>
         <v>-330</v>
       </c>
       <c r="H39" s="8">
-        <f>'1. IT 전체 개별단가'!T59</f>
         <v>168940</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="2"/>
         <v>-5840</v>
       </c>
       <c r="J39" s="9"/>
@@ -20258,23 +18634,19 @@
       <c r="M39" s="47">
         <v>10</v>
       </c>
-      <c r="N39" s="49">
+      <c r="N39" s="48">
         <v>44943</v>
       </c>
       <c r="O39" s="7">
-        <f>'1. IT 전체 개별단가'!W59</f>
         <v>5000</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q39" s="7">
-        <f>'1. IT 전체 개별단가'!Z59</f>
         <v>24200</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S39" s="33"/>
@@ -20283,31 +18655,25 @@
       <c r="B40" s="47">
         <v>11</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="48">
         <v>44950</v>
       </c>
       <c r="D40" s="8">
-        <f>'1. IT 전체 개별단가'!H62</f>
         <v>80268</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" ref="E40:E45" si="6">D40-D39</f>
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <f>'1. IT 전체 개별단가'!N62</f>
         <v>77270</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" ref="G40:G45" si="7">F40-F39</f>
         <v>-6960</v>
       </c>
       <c r="H40" s="8">
-        <f>'1. IT 전체 개별단가'!T62</f>
         <v>168580</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" ref="I40:I45" si="8">H40-H39</f>
         <v>-360</v>
       </c>
       <c r="J40" s="9"/>
@@ -20315,23 +18681,19 @@
       <c r="M40" s="47">
         <v>11</v>
       </c>
-      <c r="N40" s="49">
+      <c r="N40" s="48">
         <v>44950</v>
       </c>
       <c r="O40" s="7">
-        <f>'1. IT 전체 개별단가'!W62</f>
         <v>5000</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40:P45" si="9">O40-O39</f>
         <v>0</v>
       </c>
       <c r="Q40" s="7">
-        <f>'1. IT 전체 개별단가'!Z62</f>
         <v>22850</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" ref="R40:R45" si="10">Q40-Q39</f>
         <v>-1350</v>
       </c>
       <c r="S40" s="33"/>
@@ -20340,31 +18702,25 @@
       <c r="B41" s="47">
         <v>12</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="48">
         <v>44957</v>
       </c>
       <c r="D41" s="8">
-        <f>'1. IT 전체 개별단가'!H65</f>
         <v>80268</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <f>'1. IT 전체 개별단가'!N65</f>
         <v>71100</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="7"/>
         <v>-6170</v>
       </c>
       <c r="H41" s="8">
-        <f>'1. IT 전체 개별단가'!T65</f>
         <v>168890</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="8"/>
         <v>310</v>
       </c>
       <c r="J41" s="9"/>
@@ -20372,23 +18728,19 @@
       <c r="M41" s="47">
         <v>12</v>
       </c>
-      <c r="N41" s="49">
+      <c r="N41" s="48">
         <v>44957</v>
       </c>
       <c r="O41" s="7">
-        <f>'1. IT 전체 개별단가'!W65</f>
         <v>5100</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="Q41" s="7">
-        <f>'1. IT 전체 개별단가'!Z65</f>
         <v>22850</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S41" s="33"/>
@@ -20397,54 +18749,44 @@
       <c r="B42" s="47">
         <v>13</v>
       </c>
-      <c r="C42" s="49">
+      <c r="C42" s="48">
         <v>44964</v>
       </c>
       <c r="D42" s="8">
-        <f>'1. IT 전체 개별단가'!H68</f>
         <v>78134</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="6"/>
         <v>-2134</v>
       </c>
       <c r="F42" s="8">
-        <f>'1. IT 전체 개별단가'!N68</f>
         <v>79650</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="7"/>
         <v>8550</v>
       </c>
       <c r="H42" s="8">
-        <f>'1. IT 전체 개별단가'!T68</f>
         <v>174730</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="8"/>
         <v>5840</v>
       </c>
       <c r="J42" s="9"/>
       <c r="M42" s="47">
         <v>13</v>
       </c>
-      <c r="N42" s="49">
+      <c r="N42" s="48">
         <v>44964</v>
       </c>
       <c r="O42" s="7">
-        <f>'1. IT 전체 개별단가'!W68</f>
         <v>5000</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
       <c r="Q42" s="7">
-        <f>'1. IT 전체 개별단가'!Z68</f>
         <v>22610</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="10"/>
         <v>-240</v>
       </c>
       <c r="S42" s="33"/>
@@ -20453,54 +18795,44 @@
       <c r="B43" s="47">
         <v>14</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="48">
         <v>44971</v>
       </c>
       <c r="D43" s="8">
-        <f>'1. IT 전체 개별단가'!H71</f>
         <v>73856</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="6"/>
         <v>-4278</v>
       </c>
       <c r="F43" s="8">
-        <f>'1. IT 전체 개별단가'!N71</f>
         <v>78840</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="7"/>
         <v>-810</v>
       </c>
       <c r="H43" s="8">
-        <f>'1. IT 전체 개별단가'!T71</f>
         <v>187010</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="8"/>
         <v>12280</v>
       </c>
       <c r="J43" s="9"/>
       <c r="M43" s="47">
         <v>14</v>
       </c>
-      <c r="N43" s="49">
+      <c r="N43" s="48">
         <v>44971</v>
       </c>
       <c r="O43" s="7">
-        <f>'1. IT 전체 개별단가'!W71</f>
         <v>5000</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q43" s="7">
-        <f>'1. IT 전체 개별단가'!Z71</f>
         <v>22730</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="S43" s="33"/>
@@ -20509,54 +18841,44 @@
       <c r="B44" s="47">
         <v>15</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="48">
         <v>44978</v>
       </c>
       <c r="D44" s="8">
-        <f>'1. IT 전체 개별단가'!H74</f>
         <v>73856</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F44" s="8">
-        <f>'1. IT 전체 개별단가'!N74</f>
         <v>79200</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="H44" s="8">
-        <f>'1. IT 전체 개별단가'!T74</f>
         <v>187010</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J44" s="9"/>
       <c r="M44" s="47">
         <v>15</v>
       </c>
-      <c r="N44" s="49">
+      <c r="N44" s="48">
         <v>44978</v>
       </c>
       <c r="O44" s="7">
-        <f>'1. IT 전체 개별단가'!W74</f>
         <v>5000</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q44" s="7">
-        <f>'1. IT 전체 개별단가'!Z74</f>
         <v>23990</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" si="10"/>
         <v>1260</v>
       </c>
       <c r="S44" s="33"/>
@@ -20565,113 +18887,93 @@
       <c r="B45" s="47">
         <v>16</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="48">
         <v>44985</v>
       </c>
       <c r="D45" s="8">
-        <f>'1. IT 전체 개별단가'!H77</f>
         <v>75000</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" si="6"/>
         <v>1144</v>
       </c>
       <c r="F45" s="8">
-        <f>'1. IT 전체 개별단가'!N77</f>
         <v>84520</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" si="7"/>
         <v>5320</v>
       </c>
       <c r="H45" s="8">
-        <f>'1. IT 전체 개별단가'!T77</f>
         <v>175870</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="8"/>
         <v>-11140</v>
       </c>
       <c r="J45" s="9"/>
       <c r="M45" s="47">
         <v>16</v>
       </c>
-      <c r="N45" s="49">
+      <c r="N45" s="48">
         <v>44985</v>
       </c>
       <c r="O45" s="7">
-        <f>'1. IT 전체 개별단가'!W77</f>
         <v>5740</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" si="9"/>
         <v>740</v>
       </c>
       <c r="Q45" s="7">
-        <f>'1. IT 전체 개별단가'!Z77</f>
         <v>23350</v>
       </c>
       <c r="R45" s="8">
-        <f t="shared" si="10"/>
         <v>-640</v>
       </c>
       <c r="S45" s="33"/>
     </row>
     <row r="46" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B46" s="51">
+      <c r="B46" s="49">
         <v>17</v>
       </c>
-      <c r="C46" s="52">
+      <c r="C46" s="50">
         <v>44992</v>
       </c>
       <c r="D46" s="12">
-        <f>'1. IT 전체 개별단가'!H80</f>
         <v>75000</v>
       </c>
       <c r="E46" s="12">
-        <f t="shared" ref="E46" si="11">D46-D45</f>
         <v>0</v>
       </c>
       <c r="F46" s="12">
-        <f>'1. IT 전체 개별단가'!N80</f>
         <v>84520</v>
       </c>
       <c r="G46" s="12">
-        <f t="shared" ref="G46" si="12">F46-F45</f>
         <v>0</v>
       </c>
       <c r="H46" s="12">
-        <f>'1. IT 전체 개별단가'!T80</f>
         <v>191700</v>
       </c>
       <c r="I46" s="12">
-        <f t="shared" ref="I46" si="13">H46-H45</f>
         <v>15830</v>
       </c>
       <c r="J46" s="13"/>
-      <c r="M46" s="51">
+      <c r="M46" s="49">
         <v>17</v>
       </c>
-      <c r="N46" s="52">
+      <c r="N46" s="50">
         <v>44992</v>
       </c>
       <c r="O46" s="11">
-        <f>'1. IT 전체 개별단가'!W80</f>
         <v>5740</v>
       </c>
       <c r="P46" s="12">
-        <f t="shared" ref="P46" si="14">O46-O45</f>
         <v>0</v>
       </c>
       <c r="Q46" s="11">
-        <f>'1. IT 전체 개별단가'!Z80</f>
         <v>23350</v>
       </c>
       <c r="R46" s="12">
-        <f t="shared" ref="R46" si="15">Q46-Q45</f>
         <v>0</v>
       </c>
-      <c r="S46" s="57"/>
+      <c r="S46" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
